--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Test No.</t>
   </si>
@@ -78,12 +78,6 @@
     <t>PAMCollecte</t>
   </si>
   <si>
-    <t>AJOUT DE MARCHANDISES</t>
-  </si>
-  <si>
-    <t>MODIFICATION/SUPPRESSION DE MARCHANDISES</t>
-  </si>
-  <si>
     <t>CONNEXION</t>
   </si>
   <si>
@@ -316,6 +310,78 @@
   </si>
   <si>
     <t>NON</t>
+  </si>
+  <si>
+    <t>AJOUT - MODIFICATION/SUPPRESSION DE MARCHANDISES</t>
+  </si>
+  <si>
+    <t>Modifier une marchandise</t>
+  </si>
+  <si>
+    <t>Modifier la marchandise dans la BD et rarfraichi la liste</t>
+  </si>
+  <si>
+    <t>Supprimer une marchandise</t>
+  </si>
+  <si>
+    <t>Bouton modifier</t>
+  </si>
+  <si>
+    <t>Devrait mettre le marchandise_statut à "Cancellé" et rafraichir la liste</t>
+  </si>
+  <si>
+    <t>Met le marchandise_statut à "Cancellé" dans la BD et rafraichi la liste</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Bouton Supprimer</t>
+  </si>
+  <si>
+    <t>Bouton cancellé</t>
+  </si>
+  <si>
+    <t>Devrait modifier la marchandise et rarfraichir la liste</t>
+  </si>
+  <si>
+    <t>Devrait modifer le marchandise_statut et le mettre à "Disponible" et rafraichir la liste</t>
+  </si>
+  <si>
+    <t>BoutonCollecté</t>
+  </si>
+  <si>
+    <t>Collecter une réservation</t>
+  </si>
+  <si>
+    <t>Canceller une réservation</t>
+  </si>
+  <si>
+    <t>Modifie le champ marchandise_statut à`"Disponible" et rafraichi la liste</t>
+  </si>
+  <si>
+    <t>Modifie le champ marchandise_statut à `"Collecté" et rafraichi la liste</t>
+  </si>
+  <si>
+    <t>NAVIGATION</t>
+  </si>
+  <si>
+    <t>RÉSERVATION / COLLECTE MARCHANDISE</t>
+  </si>
+  <si>
+    <t>Bouton ajouté</t>
+  </si>
+  <si>
+    <t>Ajouté une réservation</t>
+  </si>
+  <si>
+    <t>Devrait modifier le marchandise_statut et le mettre "Collecé" et rafraichir la liste</t>
+  </si>
+  <si>
+    <t>Devrait modifier le marchandise_statut et le mettre "Réservé" et rafraichir la liste</t>
+  </si>
+  <si>
+    <t>Modifie le champ marchandise_statut à `"Réservé" et rafraichi la liste</t>
   </si>
 </sst>
 </file>
@@ -746,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,18 +826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,6 +975,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1276,64 +1372,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="9.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <f ca="1">TODAY()</f>
         <v>42395</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1359,1324 +1455,1544 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>8</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>10</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>13</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>2</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="D22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>14</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>15</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>16</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>17</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>18</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>19</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>23</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>3</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>4</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>5</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
         <v>24</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>26</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <v>27</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>6</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>8</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <v>9</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>10</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <v>11</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <v>12</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
-        <v>13</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>14</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
-        <v>15</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>18</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>19</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>20</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>21</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>22</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>23</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>24</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="39"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>25</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>26</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>27</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="39"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="18">
         <v>28</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="41"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="18">
         <v>29</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="18">
         <v>30</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="18">
         <v>31</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="18">
         <v>32</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="18">
         <v>33</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="18">
         <v>34</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="18">
         <v>35</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>36</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="37" t="s">
+      <c r="E47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="35"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>37</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>38</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="35"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>39</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>40</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="E51" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="35"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>41</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="42"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>42</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>43</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="41">
+        <v>10</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>44</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="25">
+        <v>10.1</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="27">
+        <v>10.1</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>45</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="25">
+        <v>10.11</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="27">
+        <v>10.11</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="45"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="46">
+        <v>46</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="25">
+        <v>10.111000000000001</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="27">
+        <v>10.11</v>
+      </c>
+      <c r="G57" s="44"/>
+      <c r="H57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>47</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>48</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="25">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>49</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="51">
+        <v>11111111111</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>50</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>51</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="38"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>36</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="23" t="s">
+      <c r="D62" s="25"/>
+      <c r="E62" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="39"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>37</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18" t="s">
+      <c r="G62" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>52</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="25">
+        <v>10</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>53</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>54</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>55</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>56</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>57</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="7">
+        <v>42388</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
         <v>58</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="B69" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>59</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="58"/>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>61</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="63"/>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
         <v>62</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="39"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>38</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>39</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>40</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>41</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="46"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>42</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>43</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="45">
-        <v>10</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>44</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="29">
-        <v>10.1</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="31">
-        <v>10.1</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="49"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>45</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="29">
-        <v>10.11</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="31">
-        <v>10.11</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="49"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="50">
-        <v>46</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="29">
-        <v>10.111000000000001</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="31">
-        <v>10.11</v>
-      </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
-        <v>47</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="49"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
-        <v>48</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="29">
-        <v>10.999000000000001</v>
-      </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="49"/>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>49</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="55">
-        <v>11111111111</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="49"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
-        <v>50</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="33" t="s">
+      <c r="B73" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" s="63"/>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
         <v>63</v>
       </c>
-      <c r="F61" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="49"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
-        <v>51</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="49"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>52</v>
-      </c>
-      <c r="B63" s="29" t="s">
+      <c r="B74" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="59"/>
+      <c r="H74" s="63"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
         <v>64</v>
       </c>
-      <c r="C63" s="29">
-        <v>10</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="33" t="s">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="65"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
         <v>65</v>
       </c>
-      <c r="F63" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="49"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
-        <v>53</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="10">
-        <v>10.1</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
         <v>66</v>
-      </c>
-      <c r="E64" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>54</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>55</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>56</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
-        <v>57</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="11">
-        <v>42388</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="21"/>
-    </row>
-    <row r="69" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>57</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
-        <v>58</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="39"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>59</v>
-      </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="39"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
-        <v>60</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="39"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
-        <v>61</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="39"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
-        <v>62</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="39"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
-        <v>63</v>
-      </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
-        <v>64</v>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
-        <v>65</v>
+      <c r="A78" s="18">
+        <v>67</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
-        <v>66</v>
+      <c r="A79" s="18">
+        <v>68</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="67"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
-        <v>67</v>
+      <c r="A80" s="18">
+        <v>69</v>
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
-        <v>68</v>
+      <c r="A81" s="18">
+        <v>70</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="67"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
-        <v>69</v>
-      </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="49"/>
+      <c r="A82" s="18">
+        <v>71</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
-        <v>70</v>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
+      <c r="A83" s="18">
+        <v>72</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
-        <v>71</v>
-      </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="A84" s="18">
+        <v>73</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="45"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
-        <v>72</v>
-      </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="49"/>
+      <c r="A85" s="18">
+        <v>74</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="45"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
-        <v>73</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
-        <v>74</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="21"/>
+      <c r="A86" s="18">
+        <v>75</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="58"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="63"/>
+    </row>
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="63"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="63"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="65"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="67"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="67"/>
+    </row>
+    <row r="96" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="56"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="58"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="63"/>
+    </row>
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="63"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="63"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="65"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="67"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A96:H96"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A69:H69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>

--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
   <si>
     <t>Test No.</t>
   </si>
@@ -383,12 +383,90 @@
   <si>
     <t>Modifie le champ marchandise_statut à `"Réservé" et rafraichi la liste</t>
   </si>
+  <si>
+    <t>GOOGLE MAPS / RÉSULTATS DES REQUÊTES</t>
+  </si>
+  <si>
+    <t>Liste marchandises disponible</t>
+  </si>
+  <si>
+    <t>Liste de marchandise sisponible par entreprise</t>
+  </si>
+  <si>
+    <t>Sur le onClick de l'icône Liste marchandises disponible de la carte</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Devrait retourner le nombre d'enregistrements contenu dans la base de données </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alimentaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dont le marchandise_statut est à disponible</t>
+    </r>
+  </si>
+  <si>
+    <t>Après avoir sélectionné une enttreprise sur la carte, faire afficher la liste des dons de cette entreprise</t>
+  </si>
+  <si>
+    <t>Devrait afficher les marchandises disponible de l'entreprise sélectionnée</t>
+  </si>
+  <si>
+    <t>Bouton  MES RÉSERVATIONS</t>
+  </si>
+  <si>
+    <t>Sur le onClick du bouton  MES RÉSERVATIONS</t>
+  </si>
+  <si>
+    <t>Devrait afficher la liste des marchadises réservées par l'organisme connecté</t>
+  </si>
+  <si>
+    <t>Retourne les 2 enregistrements dont le marchandise_statut est à "Réservé"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Retourne les 9 enregistrements  dont le marchandise_statut est à "Disponible" de la base de données </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alimentaire</t>
+    </r>
+  </si>
+  <si>
+    <t>N'affiche rien</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +534,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +551,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -807,12 +893,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,18 +1036,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,18 +1069,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,6 +1097,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,8 +1174,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>274988</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>676274</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1372,19 +1498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" style="9" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" style="8" customWidth="1"/>
@@ -1394,13 +1520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1419,7 +1545,7 @@
       </c>
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42395</v>
+        <v>42401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,16 +1581,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1831,16 +1957,16 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -1999,16 +2125,16 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="65"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
@@ -2032,7 +2158,9 @@
       <c r="G46" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="34"/>
+      <c r="H46" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
@@ -2056,7 +2184,9 @@
       <c r="G47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
@@ -2078,7 +2208,9 @@
       <c r="G48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
@@ -2102,7 +2234,9 @@
       <c r="G49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
@@ -2126,7 +2260,9 @@
       <c r="G50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="35"/>
+      <c r="H50" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
@@ -2150,7 +2286,9 @@
       <c r="G51" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="35"/>
+      <c r="H51" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
@@ -2172,7 +2310,9 @@
       <c r="G52" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="42"/>
+      <c r="H52" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
@@ -2196,7 +2336,9 @@
       <c r="G53" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
@@ -2211,7 +2353,7 @@
       <c r="D54" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="27" t="s">
@@ -2220,7 +2362,9 @@
       <c r="G54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
@@ -2241,10 +2385,12 @@
       <c r="F55" s="27">
         <v>10.1</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="45"/>
+      <c r="H55" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
@@ -2265,13 +2411,15 @@
       <c r="F56" s="27">
         <v>10.11</v>
       </c>
-      <c r="G56" s="44" t="s">
+      <c r="G56" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="45"/>
+      <c r="H56" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
+      <c r="A57" s="44">
         <v>46</v>
       </c>
       <c r="B57" s="41" t="s">
@@ -2289,8 +2437,10 @@
       <c r="F57" s="27">
         <v>10.11</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
@@ -2309,16 +2459,18 @@
       <c r="F58" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G58" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="45"/>
+      <c r="H58" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>48</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="25">
@@ -2331,34 +2483,38 @@
       <c r="F59" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="45"/>
+      <c r="H59" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>49</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="49">
         <v>11111111111</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="54" t="s">
+      <c r="G60" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="45"/>
+      <c r="H60" s="73">
+        <v>42395</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
@@ -2375,10 +2531,12 @@
       <c r="F61" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="45"/>
+      <c r="H61" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
@@ -2397,10 +2555,12 @@
       <c r="F62" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="44" t="s">
+      <c r="G62" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="45"/>
+      <c r="H62" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
@@ -2421,10 +2581,12 @@
       <c r="F63" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H63" s="45"/>
+      <c r="H63" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
@@ -2442,13 +2604,15 @@
       <c r="E64" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="46" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
@@ -2466,13 +2630,15 @@
       <c r="E65" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="46" t="s">
         <v>89</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
@@ -2486,13 +2652,15 @@
       <c r="E66" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="46" t="s">
         <v>73</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
@@ -2506,13 +2674,15 @@
       <c r="E67" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F67" s="48" t="s">
+      <c r="F67" s="46" t="s">
         <v>78</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
@@ -2530,13 +2700,15 @@
       <c r="E68" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
@@ -2546,19 +2718,21 @@
         <v>96</v>
       </c>
       <c r="C69" s="32"/>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="54" t="s">
         <v>94</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="34"/>
+      <c r="H69" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -2580,415 +2754,335 @@
       <c r="G70" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H70" s="37"/>
+      <c r="H70" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="58"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="65"/>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>61</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59" t="s">
+      <c r="C72" s="53"/>
+      <c r="D72" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E72" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="62" t="s">
+      <c r="F72" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="59" t="s">
+      <c r="G72" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="63"/>
+      <c r="H72" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>62</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59" t="s">
+      <c r="C73" s="53"/>
+      <c r="D73" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E73" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G73" s="59" t="s">
+      <c r="G73" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="63"/>
+      <c r="H73" s="67">
+        <v>42395</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>63</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59" t="s">
+      <c r="C74" s="53"/>
+      <c r="D74" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E74" s="59" t="s">
+      <c r="E74" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="62" t="s">
+      <c r="F74" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="59"/>
-      <c r="H74" s="63"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
+      <c r="G74" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="67">
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65"/>
+    </row>
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="44">
         <v>64</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="65"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
+      <c r="B76" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="38"/>
+      <c r="E76" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" s="72">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
         <v>65</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="B77" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="74"/>
+      <c r="E77" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="77">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
         <v>66</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>67</v>
-      </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="67"/>
+      <c r="B78" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" s="72">
+        <v>42401</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
-        <v>68</v>
-      </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="67"/>
+        <v>67</v>
+      </c>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="59"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="67"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
-        <v>71</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="45"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="61"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
-        <v>72</v>
-      </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="45"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
-        <v>73</v>
-      </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="61"/>
+    </row>
+    <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="65"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>74</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="45"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
-        <v>75</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="17"/>
-    </row>
-    <row r="87" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="58"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="57"/>
+    </row>
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="57"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="57"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="63"/>
-    </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="59"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="63"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="63"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="65"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="61"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="67"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="67"/>
-    </row>
-    <row r="96" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="58"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="63"/>
-    </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="63"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="63"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="65"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="67"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="67"/>
+      <c r="H92" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A84:H84"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A31:H31"/>

--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -428,9 +428,6 @@
     <t>Devrait afficher les marchandises disponible de l'entreprise sélectionnée</t>
   </si>
   <si>
-    <t>Bouton  MES RÉSERVATIONS</t>
-  </si>
-  <si>
     <t>Sur le onClick du bouton  MES RÉSERVATIONS</t>
   </si>
   <si>
@@ -458,13 +455,16 @@
   <si>
     <t>N'affiche rien</t>
   </si>
+  <si>
+    <t>Bouton  MES RÉSERVATIONS (Liste de mes réservations)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1099,19 +1099,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1120,16 +1108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,6 +1128,21 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1501,9 +1501,9 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,13 +1520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42401</v>
+        <v>42402</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,16 +1581,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1957,16 +1957,16 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -2125,16 +2125,16 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="65"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
@@ -2158,7 +2158,7 @@
       <c r="G46" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="G47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="67">
+      <c r="H47" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       <c r="G48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       <c r="G49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="G50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="G51" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="67">
+      <c r="H51" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="G52" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="67">
+      <c r="H52" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="G53" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="67">
+      <c r="H53" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       <c r="G54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       <c r="G55" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       <c r="G56" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
         <v>10.11</v>
       </c>
       <c r="G57" s="43"/>
-      <c r="H57" s="67">
+      <c r="H57" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       <c r="G58" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       <c r="G59" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="67">
+      <c r="H59" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       <c r="G60" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="68">
         <v>42395</v>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       <c r="G61" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="67">
+      <c r="H61" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       <c r="G62" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="67">
+      <c r="H62" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       <c r="G63" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H63" s="67">
+      <c r="H63" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       <c r="G64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="67">
+      <c r="H64" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="G65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="67">
+      <c r="H65" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="G66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="67">
+      <c r="H66" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="67">
+      <c r="H67" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       <c r="G68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="67">
+      <c r="H68" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="G69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="67">
+      <c r="H69" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2754,21 +2754,21 @@
       <c r="G70" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H70" s="67">
+      <c r="H70" s="63">
         <v>42395</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="65"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="75"/>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
@@ -2790,7 +2790,7 @@
       <c r="G72" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="67">
+      <c r="H72" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       <c r="G73" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="67">
+      <c r="H73" s="63">
         <v>42395</v>
       </c>
     </row>
@@ -2838,21 +2838,21 @@
       <c r="G74" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="63">
         <v>42395</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="65"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="75"/>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2865,64 +2865,64 @@
         <v>119</v>
       </c>
       <c r="D76" s="38"/>
-      <c r="E76" s="69" t="s">
+      <c r="E76" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="71" t="s">
-        <v>127</v>
+      <c r="F76" s="66" t="s">
+        <v>126</v>
       </c>
       <c r="G76" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="72">
+      <c r="H76" s="67">
         <v>42401</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>65</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="75" t="s">
+      <c r="D77" s="69"/>
+      <c r="E77" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="75" t="s">
+      <c r="F77" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H77" s="77">
+      <c r="H77" s="72">
         <v>42401</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>66</v>
       </c>
       <c r="B78" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="53" t="s">
         <v>123</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>124</v>
       </c>
       <c r="D78" s="53"/>
       <c r="E78" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="56" t="s">
         <v>125</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>126</v>
       </c>
       <c r="G78" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H78" s="72">
+      <c r="H78" s="67">
         <v>42401</v>
       </c>
     </row>
@@ -2987,16 +2987,16 @@
       <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="63" t="s">
+      <c r="A84" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="65"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="75"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
@@ -3076,7 +3076,7 @@
       <c r="E92" s="38"/>
       <c r="F92" s="45"/>
       <c r="G92" s="38"/>
-      <c r="H92" s="68"/>
+      <c r="H92" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
   <si>
     <t>Test No.</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Devrait modifier la marchandise et rarfraichir la liste</t>
   </si>
   <si>
-    <t>Devrait modifer le marchandise_statut et le mettre à "Disponible" et rafraichir la liste</t>
-  </si>
-  <si>
     <t>BoutonCollecté</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
   </si>
   <si>
     <t>Canceller une réservation</t>
-  </si>
-  <si>
-    <t>Modifie le champ marchandise_statut à`"Disponible" et rafraichi la liste</t>
   </si>
   <si>
     <t>Modifie le champ marchandise_statut à `"Collecté" et rafraichi la liste</t>
@@ -434,11 +428,26 @@
     <t>Devrait afficher la liste des marchadises réservées par l'organisme connecté</t>
   </si>
   <si>
-    <t>Retourne les 2 enregistrements dont le marchandise_statut est à "Réservé"</t>
+    <t>N'affiche rien</t>
+  </si>
+  <si>
+    <t>Bouton  MES RÉSERVATIONS (Liste de mes réservations)</t>
+  </si>
+  <si>
+    <t>Bouton MES DONS (Liste des dons fait par une entreprise (Réservé ou disponible))</t>
+  </si>
+  <si>
+    <t>Sur le onClick du Bbouton MES RÉSERVATIONS</t>
+  </si>
+  <si>
+    <t>Devrait afficher la liste des marchandises données,  dont le marchandise_statut est à Disponible ou à Réservé,  par l'entreprise connecté</t>
+  </si>
+  <si>
+    <t>Retourne les entregistrments dont le marchandise_statut est à "Disponible" ou à "Réservé"</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Retourne les 9 enregistrements  dont le marchandise_statut est à "Disponible" de la base de données </t>
+      <t xml:space="preserve">Retourne les  enregistrements  dont le marchandise_statut est à "Disponible" de la base de données </t>
     </r>
     <r>
       <rPr>
@@ -453,10 +462,13 @@
     </r>
   </si>
   <si>
-    <t>N'affiche rien</t>
-  </si>
-  <si>
-    <t>Bouton  MES RÉSERVATIONS (Liste de mes réservations)</t>
+    <t>Retourne les enregistrements dont le marchandise_statut est à "Réservé"</t>
+  </si>
+  <si>
+    <t>Devrait modifer le marchandise_statut et le mettre à "Disponible", mettre la date_reservation à "NULL", le receveur_id à "NULL" et rafraichir la liste</t>
+  </si>
+  <si>
+    <t>Modifie le champ marchandise_statut à`"Disponible", mettre la date_reservation à "NULL", le receveur_id à "NULL" et rafraichir la liste et rafraichi la liste</t>
   </si>
 </sst>
 </file>
@@ -911,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,6 +1139,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1516,9 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,13 +1535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1545,7 +1560,7 @@
       </c>
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42402</v>
+        <v>42404</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,16 +1596,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1957,16 +1972,16 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -2125,16 +2140,16 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="76"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
@@ -2759,18 +2774,18 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="75"/>
-    </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="76"/>
+    </row>
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>61</v>
       </c>
@@ -2779,13 +2794,13 @@
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F72" s="56" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="G72" s="53" t="s">
         <v>74</v>
@@ -2799,17 +2814,17 @@
         <v>62</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="53"/>
       <c r="D73" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F73" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G73" s="53" t="s">
         <v>74</v>
@@ -2823,17 +2838,17 @@
         <v>63</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E74" s="53" t="s">
-        <v>114</v>
-      </c>
       <c r="F74" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G74" s="53" t="s">
         <v>74</v>
@@ -2843,33 +2858,33 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="75"/>
+      <c r="A75" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="76"/>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
         <v>64</v>
       </c>
       <c r="B76" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="D76" s="38"/>
       <c r="E76" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F76" s="66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G76" s="53" t="s">
         <v>74</v>
@@ -2883,17 +2898,17 @@
         <v>65</v>
       </c>
       <c r="B77" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D77" s="69"/>
       <c r="E77" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F77" s="71" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G77" s="70" t="s">
         <v>91</v>
@@ -2907,17 +2922,17 @@
         <v>66</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D78" s="53"/>
       <c r="E78" s="53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" s="56" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G78" s="53" t="s">
         <v>74</v>
@@ -2926,17 +2941,29 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>67</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="B79" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="59"/>
+      <c r="E79" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" s="73">
+        <v>42403</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
@@ -2987,16 +3014,16 @@
       <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="75"/>
+      <c r="A84" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="76"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>

--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -1129,18 +1129,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,6 +1146,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1516,9 +1516,9 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,13 +1535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42404</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,16 +1596,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1972,16 +1972,16 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -2140,16 +2140,16 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
@@ -2774,16 +2774,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="76"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
@@ -2858,16 +2858,16 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="76"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="72"/>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2893,28 +2893,28 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>65</v>
       </c>
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="72">
-        <v>42401</v>
+      <c r="G77" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" s="78">
+        <v>42408</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
       <c r="G79" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H79" s="73">
+      <c r="H79" s="69">
         <v>42403</v>
       </c>
     </row>
@@ -3014,16 +3014,16 @@
       <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="74" t="s">
+      <c r="A84" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="76"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>

--- a/Documentation/TEST/FicheTestHippie.xlsx
+++ b/Documentation/TEST/FicheTestHippie.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t>Test No.</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Arrête à 150 caractères</t>
   </si>
   <si>
-    <t>Devrait la saisie</t>
-  </si>
-  <si>
     <t>Devrait arrondir à11.00</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>Accepte la valeur 0</t>
   </si>
   <si>
-    <t>Renvoie un mauvaise information à la BD           --&gt; 99999999.99</t>
-  </si>
-  <si>
-    <t>NON</t>
-  </si>
-  <si>
     <t>AJOUT - MODIFICATION/SUPPRESSION DE MARCHANDISES</t>
   </si>
   <si>
@@ -382,9 +373,6 @@
   </si>
   <si>
     <t>Liste marchandises disponible</t>
-  </si>
-  <si>
-    <t>Liste de marchandise sisponible par entreprise</t>
   </si>
   <si>
     <t>Sur le onClick de l'icône Liste marchandises disponible de la carte</t>
@@ -470,6 +458,15 @@
   <si>
     <t>Modifie le champ marchandise_statut à`"Disponible", mettre la date_reservation à "NULL", le receveur_id à "NULL" et rafraichir la liste et rafraichi la liste</t>
   </si>
+  <si>
+    <t>Format la saisie comme il se doit</t>
+  </si>
+  <si>
+    <t>Devrait formatter la saisie à 8 entier et 2 chiffre après le point</t>
+  </si>
+  <si>
+    <t>Liste de marchandise disponible par entreprise</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,21 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,27 +1101,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,6 +1115,36 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1516,9 +1503,9 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,13 +1522,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1560,7 +1547,7 @@
       </c>
       <c r="B4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42408</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,16 +1583,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1972,16 +1959,16 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
@@ -2140,16 +2127,16 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="72"/>
+      <c r="A45" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
@@ -2173,7 +2160,7 @@
       <c r="G46" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2199,7 +2186,7 @@
       <c r="G47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H47" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2223,7 +2210,7 @@
       <c r="G48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2249,7 +2236,7 @@
       <c r="G49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2275,7 +2262,7 @@
       <c r="G50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2301,7 +2288,7 @@
       <c r="G51" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="63">
+      <c r="H51" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2325,7 +2312,7 @@
       <c r="G52" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="63">
+      <c r="H52" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2351,7 +2338,7 @@
       <c r="G53" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="63">
+      <c r="H53" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2377,7 +2364,7 @@
       <c r="G54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="63">
+      <c r="H54" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2403,7 +2390,7 @@
       <c r="G55" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="63">
+      <c r="H55" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2429,7 +2416,7 @@
       <c r="G56" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="63">
+      <c r="H56" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2453,7 +2440,7 @@
         <v>10.11</v>
       </c>
       <c r="G57" s="43"/>
-      <c r="H57" s="63">
+      <c r="H57" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2477,7 +2464,7 @@
       <c r="G58" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="63">
+      <c r="H58" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2493,15 +2480,15 @@
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="G59" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="63">
+      <c r="H59" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2509,26 +2496,26 @@
       <c r="A60" s="18">
         <v>49</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="74">
         <v>11111111111</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="68">
-        <v>42395</v>
+      <c r="E60" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="77">
+        <v>42406</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,7 +2536,7 @@
       <c r="G61" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="63">
+      <c r="H61" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2573,7 +2560,7 @@
       <c r="G62" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="63">
+      <c r="H62" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2599,7 +2586,7 @@
       <c r="G63" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H63" s="63">
+      <c r="H63" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2625,7 +2612,7 @@
       <c r="G64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="63">
+      <c r="H64" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2640,18 +2627,18 @@
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="F65" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="F65" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="63">
+      <c r="H65" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2673,7 +2660,7 @@
       <c r="G66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="63">
+      <c r="H66" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2695,7 +2682,7 @@
       <c r="G67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="63">
+      <c r="H67" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2721,7 +2708,7 @@
       <c r="G68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="63">
+      <c r="H68" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2730,22 +2717,22 @@
         <v>58</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C69" s="32"/>
-      <c r="D69" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="54" t="s">
-        <v>94</v>
+      <c r="D69" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="63">
+      <c r="H69" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2754,58 +2741,58 @@
         <v>59</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" s="63">
+        <v>96</v>
+      </c>
+      <c r="H70" s="58">
         <v>42395</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="72"/>
+      <c r="A71" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="70"/>
     </row>
     <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>61</v>
       </c>
-      <c r="B72" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="53" t="s">
+      <c r="B72" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H72" s="63">
+      <c r="H72" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2813,23 +2800,23 @@
       <c r="A73" s="18">
         <v>62</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="53" t="s">
+      <c r="G73" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="63">
+      <c r="H73" s="58">
         <v>42395</v>
       </c>
     </row>
@@ -2837,59 +2824,59 @@
       <c r="A74" s="18">
         <v>63</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53" t="s">
+      <c r="F74" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="53" t="s">
+      <c r="G74" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H74" s="63">
+      <c r="H74" s="58">
         <v>42395</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72"/>
+      <c r="A75" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="70"/>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
         <v>64</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D76" s="38"/>
-      <c r="E76" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="53" t="s">
+      <c r="E76" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="67">
+      <c r="H76" s="62">
         <v>42401</v>
       </c>
     </row>
@@ -2897,23 +2884,23 @@
       <c r="A77" s="18">
         <v>65</v>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="75" t="s">
+      <c r="F77" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="G77" s="76" t="s">
+      <c r="G77" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H77" s="67">
         <v>42408</v>
       </c>
     </row>
@@ -2921,23 +2908,23 @@
       <c r="A78" s="18">
         <v>66</v>
       </c>
-      <c r="B78" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G78" s="53" t="s">
+      <c r="B78" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H78" s="67">
+      <c r="H78" s="62">
         <v>42401</v>
       </c>
     </row>
@@ -2946,22 +2933,22 @@
         <v>67</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" s="58" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="F79" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="G79" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H79" s="69">
+      <c r="H79" s="63">
         <v>42403</v>
       </c>
     </row>
@@ -2998,8 +2985,8 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="61"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
@@ -3010,50 +2997,50 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="27"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="61"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="72"/>
+      <c r="A84" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="70"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="57"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="57"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="57"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
@@ -3061,9 +3048,9 @@
       <c r="C88" s="42"/>
       <c r="D88" s="42"/>
       <c r="E88" s="42"/>
-      <c r="F88" s="58"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="42"/>
-      <c r="H88" s="59"/>
+      <c r="H88" s="54"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
@@ -3092,8 +3079,8 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="61"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
@@ -3103,7 +3090,7 @@
       <c r="E92" s="38"/>
       <c r="F92" s="45"/>
       <c r="G92" s="38"/>
-      <c r="H92" s="64"/>
+      <c r="H92" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
